--- a/Version Table.xlsx
+++ b/Version Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cipri\Desktop\voice recognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_Middlesex University\Third Year\PDE3400 Design Engineering Major Project\_GitHub\CNN_Voice_Inference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C02EA9-F837-4B8E-904B-B94A29564AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F22A80D-153E-4168-9B28-516B5299A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41415" yWindow="360" windowWidth="35520" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42075" yWindow="570" windowWidth="34590" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="125">
   <si>
     <t>VERSION</t>
   </si>
@@ -698,6 +698,34 @@
   </si>
   <si>
     <t>Perfect performance, similar to 1.0.64, but with higher certainty for all commands.</t>
+  </si>
+  <si>
+    <t>1.0.66</t>
+  </si>
+  <si>
+    <t>1.0.67</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perfect performance. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commands have to be immediate with no silence at the start.</t>
+    </r>
+  </si>
+  <si>
+    <t>Perfect performance, commands can be identified with higher noise levels, and 200-300ms silence at the start.</t>
+  </si>
+  <si>
+    <t>FINAL VERSION - ENCHANCED 5.0  - SAME ARCHITECTURE AS 1.065 WITH 1250 SAMPLES EACH CLASS (40 EXTRA PER CLASS) + ADDED 2 EXTRA COMMANDS FOR ENVIRONMENT</t>
   </si>
 </sst>
 </file>
@@ -1289,6 +1317,30 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,15 +1362,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1329,21 +1372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N56"/>
+  <dimension ref="B1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,54 +1674,54 @@
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="95.85546875" customWidth="1"/>
+    <col min="14" max="14" width="98.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="23" t="s">
         <v>3</v>
       </c>
@@ -1706,24 +1734,24 @@
       <c r="M3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="56"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
@@ -2300,21 +2328,21 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -2522,21 +2550,21 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
@@ -2785,21 +2813,21 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
@@ -2843,21 +2871,21 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
@@ -3024,21 +3052,21 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="40"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
@@ -3533,21 +3561,21 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="47"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="43"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
@@ -3591,21 +3619,21 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="47"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="43"/>
     </row>
     <row r="55" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
@@ -3649,48 +3677,153 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="14">
         <v>9</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="10">
         <v>360</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="14">
         <v>1E-3</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="20">
         <v>0.3</v>
       </c>
-      <c r="H56" s="37">
+      <c r="H56" s="9">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="10">
         <v>0.02</v>
       </c>
-      <c r="J56" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="N56" s="32" t="s">
+      <c r="J56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" s="17" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="57" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="43"/>
+    </row>
+    <row r="58" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="15">
+        <v>9</v>
+      </c>
+      <c r="E58" s="12">
+        <v>360</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="34">
+        <v>9</v>
+      </c>
+      <c r="E59" s="35">
+        <v>150</v>
+      </c>
+      <c r="F59" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="G59" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="H59" s="37">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="I59" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B57:N57"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B54:N54"/>
     <mergeCell ref="B32:N32"/>
@@ -3704,11 +3837,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
